--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_texas_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_texas_1_1.xlsx
@@ -1832,7 +1832,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ハイウェイラジオ"]……環状道路上で二台の乗用車による衝突事故がありました。近衛局の警官が急行しましたが、両方の運転手は既に現場を立ち去っているとのことです。
+    <t xml:space="preserve">[name="ハイウェイラジオ"]……環状道路上で二台の乗用車による衝突事故がありました。近衛局の警官が急行しましたが、双方の運転手は既に現場を立ち去っているとのことです。
 </t>
   </si>
   <si>
